--- a/Summary of All done so Far/merged_file.xlsx
+++ b/Summary of All done so Far/merged_file.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,7 +547,7 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>19.68631321111744</v>
+        <v>19.68631321111745</v>
       </c>
       <c r="H2" t="n">
         <v>2.95</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.03190427758348</v>
+        <v>61.03190427758349</v>
       </c>
       <c r="C3" t="n">
         <v>0.18</v>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.42353205200977</v>
+        <v>62.42353205200975</v>
       </c>
       <c r="C6" t="n">
         <v>0.01</v>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.68629157569591</v>
+        <v>63.6862915756959</v>
       </c>
       <c r="C7" t="n">
         <v>0.19</v>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.80141640949491</v>
+        <v>62.80141640949493</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009963072494077132</v>
+        <v>0.009963072494077133</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.72879349817485</v>
+        <v>62.72879349817486</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.48299452711844</v>
+        <v>66.48299452711841</v>
       </c>
       <c r="C10" t="n">
         <v>0.01</v>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.18361644941442</v>
+        <v>64.1836164494144</v>
       </c>
       <c r="C11" t="n">
         <v>0.16</v>
@@ -1059,7 +1059,7 @@
         <v>0.01</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0100123349146597</v>
+        <v>0.01001233491465969</v>
       </c>
       <c r="F11" t="n">
         <v>14.56</v>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63.32644485581883</v>
+        <v>63.32644485581884</v>
       </c>
       <c r="C12" t="n">
         <v>0.01</v>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.86878301624229</v>
+        <v>64.8687830162423</v>
       </c>
       <c r="C14" t="n">
         <v>0.16</v>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63.80900302541917</v>
+        <v>63.80900302541919</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.35968728895521</v>
+        <v>64.35968728895523</v>
       </c>
       <c r="C16" t="n">
         <v>0.16</v>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.65590707832338</v>
+        <v>65.65590707832339</v>
       </c>
       <c r="C19" t="n">
         <v>0.16</v>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>63.4893701572953</v>
+        <v>63.48937015729531</v>
       </c>
       <c r="C20" t="n">
         <v>0.01</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67.68109121081727</v>
+        <v>67.68109121081726</v>
       </c>
       <c r="C21" t="n">
         <v>0.01</v>
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.66570372784811</v>
+        <v>64.6657037278481</v>
       </c>
       <c r="C22" t="n">
         <v>0.01</v>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.47551860405383</v>
+        <v>64.47551860405385</v>
       </c>
       <c r="C23" t="n">
         <v>0.01</v>
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>65.45762158636441</v>
+        <v>65.4576215863644</v>
       </c>
       <c r="C24" t="n">
         <v>0.07000000000000001</v>
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.7751120121118</v>
+        <v>65.77511201211182</v>
       </c>
       <c r="C25" t="n">
         <v>0.16</v>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65.528530419338</v>
+        <v>65.52853041933798</v>
       </c>
       <c r="C26" t="n">
         <v>0.16</v>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.94306367862247</v>
+        <v>65.94306367862248</v>
       </c>
       <c r="C28" t="n">
         <v>0.01</v>
@@ -2049,7 +2049,7 @@
         <v>11.14</v>
       </c>
       <c r="G28" t="n">
-        <v>8.004066867743763</v>
+        <v>8.004066867743765</v>
       </c>
       <c r="H28" t="n">
         <v>4.99</v>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>66.24134912561102</v>
+        <v>66.24134912561101</v>
       </c>
       <c r="C35" t="n">
         <v>0.01</v>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>67.12744217831707</v>
+        <v>67.12744217831708</v>
       </c>
       <c r="C36" t="n">
         <v>0.21</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.27233987132323</v>
+        <v>66.27233987132324</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.30006342458036</v>
+        <v>68.30006342458034</v>
       </c>
       <c r="C40" t="n">
         <v>0.21</v>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63.844844301726</v>
+        <v>63.84484430172601</v>
       </c>
       <c r="C41" t="n">
         <v>0.09</v>
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>67.4732697973584</v>
+        <v>67.47326979735843</v>
       </c>
       <c r="C47" t="n">
         <v>0.2</v>
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>66.05551231342315</v>
+        <v>66.05551231342316</v>
       </c>
       <c r="C48" t="n">
         <v>0.1</v>
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>65.83125905563826</v>
+        <v>65.83125905563824</v>
       </c>
       <c r="C50" t="n">
         <v>0.01</v>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>65.84171406550078</v>
+        <v>65.8417140655008</v>
       </c>
       <c r="C51" t="n">
         <v>0.01</v>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>67.7140705632541</v>
+        <v>67.71407056325411</v>
       </c>
       <c r="C54" t="n">
         <v>0.2</v>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>67.3285743782467</v>
+        <v>67.32857437824669</v>
       </c>
       <c r="C55" t="n">
         <v>0.24</v>
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>66.80817634603986</v>
+        <v>66.80817634603984</v>
       </c>
       <c r="C56" t="n">
         <v>0.15</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>65.84952619704264</v>
+        <v>65.84952619704266</v>
       </c>
       <c r="C58" t="n">
         <v>0.01</v>
@@ -3888,7 +3888,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>67.8384478670142</v>
+        <v>67.83844786701418</v>
       </c>
       <c r="C60" t="n">
         <v>0.01</v>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>67.33747432613106</v>
+        <v>67.33747432613107</v>
       </c>
       <c r="C61" t="n">
         <v>0.09</v>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>67.95491555908357</v>
+        <v>67.95491555908356</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>0.01</v>
       </c>
       <c r="H66" t="n">
-        <v>3.007077879966456</v>
+        <v>3.007077879966457</v>
       </c>
       <c r="I66" t="n">
         <v>0.97</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>67.73290520155776</v>
+        <v>67.73290520155777</v>
       </c>
       <c r="C68" t="n">
         <v>0.11</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.009996090301383606</v>
+        <v>0.009996090301383608</v>
       </c>
       <c r="L68" t="n">
         <v>16.7</v>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>68.69063437060636</v>
+        <v>68.69063437060635</v>
       </c>
       <c r="C69" t="n">
         <v>0.19</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>68.52605051176322</v>
+        <v>68.52605051176323</v>
       </c>
       <c r="C70" t="n">
         <v>0.2</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0800693508923335</v>
+        <v>0.08006935089233352</v>
       </c>
       <c r="L70" t="n">
         <v>15.16</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>69.16499938341069</v>
+        <v>69.16499938341067</v>
       </c>
       <c r="C76" t="n">
         <v>0.2</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>69.31513394543236</v>
+        <v>69.31513394543235</v>
       </c>
       <c r="C78" t="n">
         <v>0.22</v>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>68.47703560115676</v>
+        <v>68.47703560115674</v>
       </c>
       <c r="C81" t="n">
         <v>0.01</v>
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>66.6970369243177</v>
+        <v>66.69703692431771</v>
       </c>
       <c r="C83" t="n">
         <v>0.01</v>
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>66.54379708578651</v>
+        <v>66.54379708578652</v>
       </c>
       <c r="C91" t="n">
         <v>0.04</v>
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>69.0045165619009</v>
+        <v>69.00451656190091</v>
       </c>
       <c r="C99" t="n">
         <v>0.22</v>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>69.93369457644314</v>
+        <v>69.93369457644317</v>
       </c>
       <c r="C101" t="n">
         <v>0.23</v>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>69.98174308390476</v>
+        <v>69.98174308390477</v>
       </c>
       <c r="C103" t="n">
         <v>0.19</v>
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>69.85348881109618</v>
+        <v>69.85348881109617</v>
       </c>
       <c r="C105" t="n">
         <v>0.21</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>69.96149682491466</v>
+        <v>69.96149682491468</v>
       </c>
       <c r="C106" t="n">
         <v>0.21</v>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>68.05866955601749</v>
+        <v>68.05866955601751</v>
       </c>
       <c r="C107" t="n">
         <v>0.01</v>
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>67.99809343175356</v>
+        <v>67.99809343175357</v>
       </c>
       <c r="C109" t="n">
         <v>0.01</v>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>70.25616035409372</v>
+        <v>70.25616035409371</v>
       </c>
       <c r="C110" t="n">
         <v>0.2</v>
@@ -6888,7 +6888,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>69.22666397299176</v>
+        <v>69.22666397299174</v>
       </c>
       <c r="C112" t="n">
         <v>0.02</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>72.00136204261113</v>
+        <v>72.00136204261112</v>
       </c>
       <c r="C116" t="n">
         <v>0.02</v>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>71.54796215530622</v>
+        <v>71.54796215530624</v>
       </c>
       <c r="C117" t="n">
         <v>0.06</v>
@@ -7186,7 +7186,7 @@
         <v>0.32</v>
       </c>
       <c r="F117" t="n">
-        <v>16.39357555169971</v>
+        <v>16.39357555169972</v>
       </c>
       <c r="G117" t="n">
         <v>5.14</v>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>70.31416022430211</v>
+        <v>70.31416022430213</v>
       </c>
       <c r="C118" t="n">
         <v>0.19</v>
@@ -7348,7 +7348,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>68.82319271773714</v>
+        <v>68.82319271773713</v>
       </c>
       <c r="C120" t="n">
         <v>0.01</v>
@@ -7406,7 +7406,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>68.91849236878814</v>
+        <v>68.91849236878812</v>
       </c>
       <c r="C121" t="n">
         <v>0.01</v>
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>72.50690446788468</v>
+        <v>72.50690446788467</v>
       </c>
       <c r="C122" t="n">
         <v>0.02</v>
@@ -7638,7 +7638,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>68.56692232644886</v>
+        <v>68.56692232644887</v>
       </c>
       <c r="C125" t="n">
         <v>0.02</v>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>68.52769958457819</v>
+        <v>68.5276995845782</v>
       </c>
       <c r="C126" t="n">
         <v>0.02</v>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>70.3890064443117</v>
+        <v>70.38900644431169</v>
       </c>
       <c r="C128" t="n">
         <v>0.22</v>
@@ -7928,7 +7928,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>70.99311906179553</v>
+        <v>70.99311906179551</v>
       </c>
       <c r="C130" t="n">
         <v>0.15</v>
@@ -8044,7 +8044,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>70.61794705534861</v>
+        <v>70.61794705534859</v>
       </c>
       <c r="C132" t="n">
         <v>0.23</v>
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>69.68045612578389</v>
+        <v>69.68045612578391</v>
       </c>
       <c r="C133" t="n">
         <v>0.03</v>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>70.24583226200085</v>
+        <v>70.24583226200083</v>
       </c>
       <c r="C135" t="n">
         <v>0.1</v>
@@ -8276,7 +8276,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>70.65343541824366</v>
+        <v>70.65343541824365</v>
       </c>
       <c r="C136" t="n">
         <v>0.22</v>
@@ -8334,7 +8334,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>70.769629895298</v>
+        <v>70.76962989529798</v>
       </c>
       <c r="C137" t="n">
         <v>0.21</v>
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>70.83031667551741</v>
+        <v>70.83031667551739</v>
       </c>
       <c r="C138" t="n">
         <v>0.23</v>
@@ -8566,7 +8566,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>72.31761819521016</v>
+        <v>72.31761819521014</v>
       </c>
       <c r="C141" t="n">
         <v>0.03</v>
@@ -8624,7 +8624,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>70.86596979832414</v>
+        <v>70.86596979832413</v>
       </c>
       <c r="C142" t="n">
         <v>0.21</v>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>70.42740217663098</v>
+        <v>70.42740217663096</v>
       </c>
       <c r="C144" t="n">
         <v>0.08</v>
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>70.66001843006215</v>
+        <v>70.66001843006217</v>
       </c>
       <c r="C146" t="n">
         <v>0.01</v>
@@ -8970,7 +8970,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>70.72730954839858</v>
+        <v>70.72730954839857</v>
       </c>
       <c r="C148" t="n">
         <v>0.02</v>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>70.5768356657439</v>
+        <v>70.57683566574389</v>
       </c>
       <c r="C149" t="n">
         <v>0.02</v>
@@ -9086,7 +9086,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>73.91792742259808</v>
+        <v>73.9179274225981</v>
       </c>
       <c r="C150" t="n">
         <v>0.09</v>
@@ -9144,13 +9144,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>70.45835816561492</v>
+        <v>70.45835816561495</v>
       </c>
       <c r="C151" t="n">
         <v>0.01</v>
       </c>
       <c r="D151" t="n">
-        <v>0.009998138378451293</v>
+        <v>0.009998138378451295</v>
       </c>
       <c r="E151" t="n">
         <v>0.01</v>
@@ -9318,7 +9318,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>70.95140111970422</v>
+        <v>70.95140111970423</v>
       </c>
       <c r="C154" t="n">
         <v>0.04</v>
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>70.64822447680061</v>
+        <v>70.64822447680064</v>
       </c>
       <c r="C157" t="n">
         <v>0.01</v>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>72.13372828498166</v>
+        <v>72.13372828498164</v>
       </c>
       <c r="C160" t="n">
         <v>0.03</v>
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>71.06064808295345</v>
+        <v>71.06064808295346</v>
       </c>
       <c r="C162" t="n">
         <v>0.01</v>
@@ -9840,7 +9840,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>73.79755901847371</v>
+        <v>73.79755901847372</v>
       </c>
       <c r="C163" t="n">
         <v>0.09</v>
@@ -9956,7 +9956,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>73.7716116968907</v>
+        <v>73.77161169689069</v>
       </c>
       <c r="C165" t="n">
         <v>0.09</v>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>72.67352000154459</v>
+        <v>72.67352000154457</v>
       </c>
       <c r="C167" t="n">
         <v>0.16</v>
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>72.80178811820089</v>
+        <v>72.80178811820088</v>
       </c>
       <c r="C168" t="n">
         <v>0.16</v>
@@ -10304,7 +10304,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>73.71839884732634</v>
+        <v>73.71839884732633</v>
       </c>
       <c r="C171" t="n">
         <v>0.24</v>
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>73.79188462842114</v>
+        <v>73.79188462842113</v>
       </c>
       <c r="C172" t="n">
         <v>0.23</v>
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>71.68172356786141</v>
+        <v>71.68172356786143</v>
       </c>
       <c r="C173" t="n">
         <v>0.02</v>
@@ -10534,7 +10534,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>73.90468275893174</v>
+        <v>73.90468275893173</v>
       </c>
       <c r="C175" t="n">
         <v>0.24</v>
@@ -10592,7 +10592,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>75.34142169120918</v>
+        <v>75.34142169120916</v>
       </c>
       <c r="C176" t="n">
         <v>0.1</v>
@@ -10604,7 +10604,7 @@
         <v>0.3</v>
       </c>
       <c r="F176" t="n">
-        <v>16.96839487296751</v>
+        <v>16.9683948729675</v>
       </c>
       <c r="G176" t="n">
         <v>4.2</v>
@@ -10650,7 +10650,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>73.54409510071113</v>
+        <v>73.54409510071115</v>
       </c>
       <c r="C177" t="n">
         <v>0.15</v>
@@ -10998,7 +10998,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>75.67580088905351</v>
+        <v>75.67580088905352</v>
       </c>
       <c r="C183" t="n">
         <v>0.04</v>
@@ -11114,7 +11114,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>75.77120756576223</v>
+        <v>75.77120756576221</v>
       </c>
       <c r="C185" t="n">
         <v>0.03</v>
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>75.77334835158693</v>
+        <v>75.77334835158692</v>
       </c>
       <c r="C186" t="n">
         <v>0.03</v>
@@ -11288,7 +11288,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>75.69423694965199</v>
+        <v>75.69423694965198</v>
       </c>
       <c r="C188" t="n">
         <v>0.03</v>
@@ -11520,7 +11520,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>74.40312136172041</v>
+        <v>74.40312136172039</v>
       </c>
       <c r="C192" t="n">
         <v>0.12</v>
@@ -11578,7 +11578,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>75.8437592504137</v>
+        <v>75.84375925041368</v>
       </c>
       <c r="C193" t="n">
         <v>0.03</v>
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>75.82573671199697</v>
+        <v>75.82573671199695</v>
       </c>
       <c r="C194" t="n">
         <v>0.03</v>
@@ -11868,7 +11868,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>75.88907572787735</v>
+        <v>75.88907572787734</v>
       </c>
       <c r="C198" t="n">
         <v>0.03</v>
@@ -11984,7 +11984,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>75.98102627581034</v>
+        <v>75.98102627581035</v>
       </c>
       <c r="C200" t="n">
         <v>0.04</v>
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>76.01913199148638</v>
+        <v>76.01913199148639</v>
       </c>
       <c r="C201" t="n">
         <v>0.13</v>
@@ -12100,7 +12100,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>76.68321577536197</v>
+        <v>76.68321577536199</v>
       </c>
       <c r="C202" t="n">
         <v>0.14</v>
@@ -12216,7 +12216,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>76.26656892056569</v>
+        <v>76.26656892056567</v>
       </c>
       <c r="C204" t="n">
         <v>0.12</v>
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>75.69102388002216</v>
+        <v>75.69102388002217</v>
       </c>
       <c r="C205" t="n">
         <v>0.01</v>
@@ -12506,7 +12506,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>76.26041834797861</v>
+        <v>76.2604183479786</v>
       </c>
       <c r="C209" t="n">
         <v>0.04</v>
@@ -12680,7 +12680,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>75.60185462485589</v>
+        <v>75.60185462485592</v>
       </c>
       <c r="C212" t="n">
         <v>0.01</v>
@@ -12805,7 +12805,7 @@
         <v>0.05</v>
       </c>
       <c r="E214" t="n">
-        <v>0.01998745049902111</v>
+        <v>0.01998745049902112</v>
       </c>
       <c r="F214" t="n">
         <v>10.6</v>
@@ -12854,7 +12854,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>74.01876078936131</v>
+        <v>74.01876078936132</v>
       </c>
       <c r="C215" t="n">
         <v>0.1</v>
@@ -12912,7 +12912,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>76.41861523833984</v>
+        <v>76.41861523833981</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -13142,7 +13142,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>76.46016760161982</v>
+        <v>76.46016760161983</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>76.49227769309155</v>
+        <v>76.49227769309157</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>76.2528158895784</v>
+        <v>76.25281588957843</v>
       </c>
       <c r="C229" t="n">
         <v>0.01</v>
@@ -13954,7 +13954,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>76.82029069486194</v>
+        <v>76.82029069486195</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -14186,7 +14186,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>76.68454724777628</v>
+        <v>76.68454724777631</v>
       </c>
       <c r="C238" t="n">
         <v>0.03</v>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>76.94430252621882</v>
+        <v>76.94430252621883</v>
       </c>
       <c r="C240" t="n">
         <v>0.01</v>
@@ -14590,7 +14590,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>76.58212213940831</v>
+        <v>76.5821221394083</v>
       </c>
       <c r="C245" t="n">
         <v>0.02</v>
@@ -14648,7 +14648,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>78.40456840632784</v>
+        <v>78.40456840632783</v>
       </c>
       <c r="C246" t="n">
         <v>0.03</v>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>77.02074352939307</v>
+        <v>77.02074352939306</v>
       </c>
       <c r="C247" t="n">
         <v>0.03</v>
@@ -14764,7 +14764,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>77.01301772820625</v>
+        <v>77.01301772820622</v>
       </c>
       <c r="C248" t="n">
         <v>0.03</v>
@@ -14822,7 +14822,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>79.40791552081237</v>
+        <v>79.4079155208124</v>
       </c>
       <c r="C249" t="n">
         <v>0.01</v>
@@ -15054,7 +15054,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>77.11493927402223</v>
+        <v>77.11493927402222</v>
       </c>
       <c r="C253" t="n">
         <v>0.03</v>
@@ -15344,7 +15344,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>78.33980345159401</v>
+        <v>78.33980345159399</v>
       </c>
       <c r="C258" t="n">
         <v>0.02</v>
@@ -15574,7 +15574,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>77.60505344311625</v>
+        <v>77.60505344311623</v>
       </c>
       <c r="C262" t="n">
         <v>0.29</v>
@@ -15632,7 +15632,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>76.85851592811005</v>
+        <v>76.85851592811007</v>
       </c>
       <c r="C263" t="n">
         <v>0.03</v>
@@ -15748,7 +15748,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>78.45573863679387</v>
+        <v>78.45573863679385</v>
       </c>
       <c r="C265" t="n">
         <v>0.01</v>
@@ -15806,7 +15806,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>78.80817057487073</v>
+        <v>78.80817057487074</v>
       </c>
       <c r="C266" t="n">
         <v>0.01</v>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>78.85729948701436</v>
+        <v>78.85729948701437</v>
       </c>
       <c r="C268" t="n">
         <v>0.03</v>
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>79.17191312066649</v>
+        <v>79.17191312066647</v>
       </c>
       <c r="C271" t="n">
         <v>0.01</v>
@@ -16154,7 +16154,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>79.28019193770774</v>
+        <v>79.28019193770776</v>
       </c>
       <c r="C272" t="n">
         <v>0.01</v>
@@ -16270,7 +16270,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>79.12586927546729</v>
+        <v>79.12586927546728</v>
       </c>
       <c r="C274" t="n">
         <v>0.01</v>
@@ -16282,7 +16282,7 @@
         <v>0.01</v>
       </c>
       <c r="F274" t="n">
-        <v>0.009958206094880157</v>
+        <v>0.009958206094880155</v>
       </c>
       <c r="G274" t="n">
         <v>17.4</v>
@@ -16328,7 +16328,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>78.910719170386</v>
+        <v>78.91071917038597</v>
       </c>
       <c r="C275" t="n">
         <v>0.01</v>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>79.41366723040379</v>
+        <v>79.4136672304038</v>
       </c>
       <c r="C276" t="n">
         <v>0.02</v>
@@ -16502,7 +16502,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>79.35278447886586</v>
+        <v>79.35278447886584</v>
       </c>
       <c r="C278" t="n">
         <v>0.01</v>
@@ -16618,7 +16618,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>79.6884405732455</v>
+        <v>79.68844057324551</v>
       </c>
       <c r="C280" t="n">
         <v>0.02</v>
@@ -16734,7 +16734,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>79.64830983101507</v>
+        <v>79.6483098310151</v>
       </c>
       <c r="C282" t="n">
         <v>0.01</v>
@@ -16908,7 +16908,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>79.42878251428237</v>
+        <v>79.42878251428236</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -16966,7 +16966,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>81.20259241727229</v>
+        <v>81.2025924172723</v>
       </c>
       <c r="C286" t="n">
         <v>0.01</v>
@@ -17024,7 +17024,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>79.4006825886033</v>
+        <v>79.40068258860329</v>
       </c>
       <c r="C287" t="n">
         <v>0.01</v>
@@ -17140,7 +17140,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>79.58427213115996</v>
+        <v>79.58427213115998</v>
       </c>
       <c r="C289" t="n">
         <v>0.37</v>
@@ -17368,7 +17368,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>79.94441841848378</v>
+        <v>79.94441841848379</v>
       </c>
       <c r="C293" t="n">
         <v>0.01</v>
@@ -17658,7 +17658,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>80.61092418641313</v>
+        <v>80.61092418641311</v>
       </c>
       <c r="C298" t="n">
         <v>0.39</v>
@@ -17832,7 +17832,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>80.79921190873189</v>
+        <v>80.79921190873191</v>
       </c>
       <c r="C301" t="n">
         <v>0.02</v>
@@ -17890,7 +17890,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>80.67735272344775</v>
+        <v>80.67735272344777</v>
       </c>
       <c r="C302" t="n">
         <v>0.36</v>
@@ -17948,7 +17948,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>80.96949379796942</v>
+        <v>80.96949379796943</v>
       </c>
       <c r="C303" t="n">
         <v>0.02</v>
@@ -18064,7 +18064,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>82.50169116611694</v>
+        <v>82.50169116611696</v>
       </c>
       <c r="C305" t="n">
         <v>0.11</v>
@@ -18470,7 +18470,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>86.25046034335917</v>
+        <v>86.25046034335915</v>
       </c>
       <c r="C312" t="n">
         <v>0.27</v>
